--- a/biology/Botanique/Forêt_de_Trélon/Forêt_de_Trélon.xlsx
+++ b/biology/Botanique/Forêt_de_Trélon/Forêt_de_Trélon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Tr%C3%A9lon</t>
+          <t>Forêt_de_Trélon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Trélon est une forêt française située sur la commune de Trélon, dans le département du Nord.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Tr%C3%A9lon</t>
+          <t>Forêt_de_Trélon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le massif est globalement situé sur les limites du massif ardennais, près d'Anor, au nord de la commune de Trélon, près de la frontière belge et à l'Est d'Avesnes-sur-Helpe. La ZNIEFF correspondant au massif s'étend au nord jusqu'au lac du Val Joly.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Tr%C3%A9lon</t>
+          <t>Forêt_de_Trélon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Climat océanique, mais durci (plus sec, plus chaud en été et plus froid en hiver) par une influence pré-continentale.
 température moyenne annuelle :  9,0 °C (5,0 °C au minimum à 13,1 °C comme température moyenne maximale)
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Tr%C3%A9lon</t>
+          <t>Forêt_de_Trélon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt pourrait être l'un des restes de l'ancienne « Haye d'Avesnes ».
 Elle semble avoir évolué depuis le haut Moyen Âge sous l'action des sylviculteurs qui y ont probablement favorisé le chêne.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Tr%C3%A9lon</t>
+          <t>Forêt_de_Trélon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Caractéristiques biogéographiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors que l'influence océanique domine le reste de la région, ce massif marque le début d'un climat et d'un relief plus continental et ardennais. L'hiver y est plus froid et les étés plus secs.
 </t>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Tr%C3%A9lon</t>
+          <t>Forêt_de_Trélon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Hydrologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt est situé au sud de la Grande-Helpe (longue de 54 kilomètres, qui prend sa source en Belgique vers Avesnes pour débouche dans la Sambre, sur la rive droite, à 3 ou 4 kilomètres au-dessus de Berlaimont.
 </t>
@@ -655,7 +677,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Tr%C3%A9lon</t>
+          <t>Forêt_de_Trélon</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,7 +695,9 @@
           <t>Relief, géologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Poussant souvent à plus de 200m d'altitude, sur pente ou plateaux, les arbres couvrent un relief complexe, présentant des assises géologiques variées (schistes à nodules calcaires, grès, limons, alluvion ou colluvions de fond de vallons…) dans des microclimats parfois marqués et originaux pour la région, expliquant une grande variété d'habitats et facies écopaysagers, support d'un flore souvent originale et diversifiée.
 </t>
@@ -686,7 +710,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Tr%C3%A9lon</t>
+          <t>Forêt_de_Trélon</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -704,15 +728,16 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le massif abrite un patrimoine végétal exceptionnel pour la région (flore variée, de types mésoxérophiles à hygrophiles)[1], animales et de fonge[2]. 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le massif abrite un patrimoine végétal exceptionnel pour la région (flore variée, de types mésoxérophiles à hygrophiles), animales et de fonge. 
 Naturalité : le massif est plutôt moins fragmenté par les routes que les autres grands massifs de la région (D119 et D963), mais certaines parcelles ont été artificialisées (enrésinement et sylviculture intensive).
 La ZNIEFF de la Forêt de Trélon et ses lisières fait partie d'un complexe boisé plus vaste comprenant 5 autres ZNIEFF contiguës
-[3]
 Les populations localement très denses de sangliers ont dégradé le sous-bois (le long du Voyon notamment).
-La forêt présente un fort intérêt ornithologique puisqu'elle accueille notamment la Cigogne noire, le Pouillot siffleur, la Bondrée apivore ou encore les pics mar et noir[3].
-La richesse de ce massif en Rhopalocères est impressionnante: Damier de la Succise, Céphale, Grand collier argenté ou encore Petit collier argenté[3] y sont présents.
+La forêt présente un fort intérêt ornithologique puisqu'elle accueille notamment la Cigogne noire, le Pouillot siffleur, la Bondrée apivore ou encore les pics mar et noir.
+La richesse de ce massif en Rhopalocères est impressionnante: Damier de la Succise, Céphale, Grand collier argenté ou encore Petit collier argenté y sont présents.
 D'autres espèces d'intérêt patrimonial peuplent cette forêt: Chat forestier, Muscardin, Murin de Bechstein et Epithèque à deux tâches notamment.
 </t>
         </is>
@@ -724,7 +749,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Tr%C3%A9lon</t>
+          <t>Forêt_de_Trélon</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -743,6 +768,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -750,7 +777,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Tr%C3%A9lon</t>
+          <t>Forêt_de_Trélon</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -769,6 +796,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -776,7 +805,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Tr%C3%A9lon</t>
+          <t>Forêt_de_Trélon</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -796,9 +825,13 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestion sylvicole
-Gestion cynégétique
-Le Sanglier et le Chevreuil sont les deux espèces de grands mammifères à y être chassées. Le Cerf élaphe n'est présent que de manière sporadique sur le massif, et la volonté des propriétaires privés et de l'ONF est de ne pas laisser une population s'y développer. La chasse au petit gibier concerne essentiellement la Bécasse des bois, le Faisan de Colchide (issu de lâchers) ou encore plus anecdotiquement le Lièvre d'Europe.
+          <t>Gestion cynégétique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Sanglier et le Chevreuil sont les deux espèces de grands mammifères à y être chassées. Le Cerf élaphe n'est présent que de manière sporadique sur le massif, et la volonté des propriétaires privés et de l'ONF est de ne pas laisser une population s'y développer. La chasse au petit gibier concerne essentiellement la Bécasse des bois, le Faisan de Colchide (issu de lâchers) ou encore plus anecdotiquement le Lièvre d'Europe.
 </t>
         </is>
       </c>
